--- a/MWS/Application/MwsSimulation2/Doc/MIC WEB SERVICE 課金シミュレーション更新履歴.xlsx
+++ b/MWS/Application/MwsSimulation2/Doc/MIC WEB SERVICE 課金シミュレーション更新履歴.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PaletteCollection\ProtoTyping\個人用\suguro\MWS\Application\MwsSimulation\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\MWS\Application\MwsSimulation2\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6D6637DB-0A0F-4891-A3AE-DAD8F143327D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A441F7-CBF3-4A8A-BF5E-A6AABB9C0959}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19470" windowHeight="10620" activeTab="1" xr2:uid="{740EF727-6484-4DBB-9275-475E60969A7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{740EF727-6484-4DBB-9275-475E60969A7F}"/>
   </bookViews>
   <sheets>
     <sheet name="プログラム" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>バージョン</t>
     <phoneticPr fontId="1"/>
@@ -159,6 +159,20 @@
   </si>
   <si>
     <t>MwsSimulationMaster.db</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1044100 TABLET 口腔内所見</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1030200 他社予約連携</t>
+    <rPh sb="8" eb="10">
+      <t>タシャ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ヨヤクレンケイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -166,6 +180,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -220,7 +237,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -232,6 +249,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,60 +567,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6369102C-FF95-49D1-A0D6-3DE4101846FE}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>43314.748611111114</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>43314.753472222219</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>43314.773611111108</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -613,16 +633,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8F0DE6-86B2-4C54-840F-0F954AB0A6AE}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="63" bestFit="1" customWidth="1"/>
   </cols>
@@ -741,6 +761,25 @@
         <v>7</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>1003</v>
+      </c>
+      <c r="B17" s="4">
+        <v>43766.728472222225</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
